--- a/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
+++ b/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03245E-C1C1-4945-9AAD-B30EF269FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73760E73-90B7-4F47-8694-CE3ECA6A5B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="3195" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>

--- a/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
+++ b/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73760E73-90B7-4F47-8694-CE3ECA6A5B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB9738E-3F5E-4438-AE9C-AA1E79CB122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="3195" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB437"/>
+  <dimension ref="A1:AB438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
       <selection activeCell="A438" sqref="A438"/>
@@ -38217,6 +38217,92 @@
         <v>21915</v>
       </c>
     </row>
+    <row r="438" spans="1:28">
+      <c r="A438" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B438" s="3">
+        <v>14279.5</v>
+      </c>
+      <c r="C438" s="3">
+        <v>36691</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2811.0078440000002</v>
+      </c>
+      <c r="E438" s="3">
+        <v>10255.904972</v>
+      </c>
+      <c r="F438" s="3">
+        <v>2651.466007</v>
+      </c>
+      <c r="G438" s="3">
+        <v>12715.741346999999</v>
+      </c>
+      <c r="H438" s="3">
+        <v>3561.5330589999999</v>
+      </c>
+      <c r="I438" s="3">
+        <v>3035.3572039999999</v>
+      </c>
+      <c r="J438" s="3">
+        <v>31667</v>
+      </c>
+      <c r="K438" s="3">
+        <v>1069.96</v>
+      </c>
+      <c r="L438" s="3">
+        <v>2042.54</v>
+      </c>
+      <c r="M438" s="3">
+        <v>25482</v>
+      </c>
+      <c r="N438" s="3">
+        <v>1371</v>
+      </c>
+      <c r="O438" s="3">
+        <v>2394</v>
+      </c>
+      <c r="P438" s="3">
+        <v>2385</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>1476</v>
+      </c>
+      <c r="R438" s="3">
+        <v>4033</v>
+      </c>
+      <c r="S438" s="3">
+        <v>37189</v>
+      </c>
+      <c r="T438" s="3">
+        <v>4967.3100000000004</v>
+      </c>
+      <c r="U438" s="3">
+        <v>115906.71167</v>
+      </c>
+      <c r="V438" s="3">
+        <v>-10.7</v>
+      </c>
+      <c r="W438" s="3">
+        <v>3251</v>
+      </c>
+      <c r="X438" s="3">
+        <v>3999.9999999999995</v>
+      </c>
+      <c r="Y438" s="3">
+        <v>1211.461742</v>
+      </c>
+      <c r="Z438" s="3">
+        <v>1636.6</v>
+      </c>
+      <c r="AA438" s="3">
+        <v>472532000</v>
+      </c>
+      <c r="AB438" s="3">
+        <v>23389</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
+++ b/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB9738E-3F5E-4438-AE9C-AA1E79CB122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274C2BD-63C4-42C9-AF51-E2AF1C0EB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="3195" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
+++ b/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274C2BD-63C4-42C9-AF51-E2AF1C0EB46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCADB14-0D6E-4A60-AE32-3DD9E981B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="3195" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB438"/>
+  <dimension ref="A1:AB437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
       <selection activeCell="A438" sqref="A438"/>
@@ -38217,92 +38217,6 @@
         <v>21915</v>
       </c>
     </row>
-    <row r="438" spans="1:28">
-      <c r="A438" s="2">
-        <v>45535</v>
-      </c>
-      <c r="B438" s="3">
-        <v>14279.5</v>
-      </c>
-      <c r="C438" s="3">
-        <v>36691</v>
-      </c>
-      <c r="D438" s="3">
-        <v>2811.0078440000002</v>
-      </c>
-      <c r="E438" s="3">
-        <v>10255.904972</v>
-      </c>
-      <c r="F438" s="3">
-        <v>2651.466007</v>
-      </c>
-      <c r="G438" s="3">
-        <v>12715.741346999999</v>
-      </c>
-      <c r="H438" s="3">
-        <v>3561.5330589999999</v>
-      </c>
-      <c r="I438" s="3">
-        <v>3035.3572039999999</v>
-      </c>
-      <c r="J438" s="3">
-        <v>31667</v>
-      </c>
-      <c r="K438" s="3">
-        <v>1069.96</v>
-      </c>
-      <c r="L438" s="3">
-        <v>2042.54</v>
-      </c>
-      <c r="M438" s="3">
-        <v>25482</v>
-      </c>
-      <c r="N438" s="3">
-        <v>1371</v>
-      </c>
-      <c r="O438" s="3">
-        <v>2394</v>
-      </c>
-      <c r="P438" s="3">
-        <v>2385</v>
-      </c>
-      <c r="Q438" s="3">
-        <v>1476</v>
-      </c>
-      <c r="R438" s="3">
-        <v>4033</v>
-      </c>
-      <c r="S438" s="3">
-        <v>37189</v>
-      </c>
-      <c r="T438" s="3">
-        <v>4967.3100000000004</v>
-      </c>
-      <c r="U438" s="3">
-        <v>115906.71167</v>
-      </c>
-      <c r="V438" s="3">
-        <v>-10.7</v>
-      </c>
-      <c r="W438" s="3">
-        <v>3251</v>
-      </c>
-      <c r="X438" s="3">
-        <v>3999.9999999999995</v>
-      </c>
-      <c r="Y438" s="3">
-        <v>1211.461742</v>
-      </c>
-      <c r="Z438" s="3">
-        <v>1636.6</v>
-      </c>
-      <c r="AA438" s="3">
-        <v>472532000</v>
-      </c>
-      <c r="AB438" s="3">
-        <v>23389</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
+++ b/inst/extdata/apparent consumption of fossils - Duplicate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCADB14-0D6E-4A60-AE32-3DD9E981B736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8D19BC-AEA3-461E-A3FC-3FE05F944B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="3195" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
@@ -750,26 +750,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB437"/>
+  <dimension ref="A1:AB438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
       <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -38217,6 +38217,92 @@
         <v>21915</v>
       </c>
     </row>
+    <row r="438" spans="1:28">
+      <c r="A438" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B438" s="3">
+        <v>14279.5</v>
+      </c>
+      <c r="C438" s="3">
+        <v>36691</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2811.0078440000002</v>
+      </c>
+      <c r="E438" s="3">
+        <v>10255.904972</v>
+      </c>
+      <c r="F438" s="3">
+        <v>2651.466007</v>
+      </c>
+      <c r="G438" s="3">
+        <v>12715.741346999999</v>
+      </c>
+      <c r="H438" s="3">
+        <v>3561.5330589999999</v>
+      </c>
+      <c r="I438" s="3">
+        <v>3035.3572039999999</v>
+      </c>
+      <c r="J438" s="3">
+        <v>31667</v>
+      </c>
+      <c r="K438" s="3">
+        <v>1069.96</v>
+      </c>
+      <c r="L438" s="3">
+        <v>2042.54</v>
+      </c>
+      <c r="M438" s="3">
+        <v>25482</v>
+      </c>
+      <c r="N438" s="3">
+        <v>1371</v>
+      </c>
+      <c r="O438" s="3">
+        <v>2394</v>
+      </c>
+      <c r="P438" s="3">
+        <v>2385</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>1476</v>
+      </c>
+      <c r="R438" s="3">
+        <v>4033</v>
+      </c>
+      <c r="S438" s="3">
+        <v>37189</v>
+      </c>
+      <c r="T438" s="3">
+        <v>4967.3100000000004</v>
+      </c>
+      <c r="U438" s="3">
+        <v>115906.71167</v>
+      </c>
+      <c r="V438" s="3">
+        <v>-10.7</v>
+      </c>
+      <c r="W438" s="3">
+        <v>3251</v>
+      </c>
+      <c r="X438" s="3">
+        <v>3999.9999999999995</v>
+      </c>
+      <c r="Y438" s="3">
+        <v>1211.461742</v>
+      </c>
+      <c r="Z438" s="3">
+        <v>1636.6</v>
+      </c>
+      <c r="AA438" s="3">
+        <v>472532000</v>
+      </c>
+      <c r="AB438" s="3">
+        <v>23389</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
